--- a/regression/testcase_ConvertLab_AllChannel.xlsx
+++ b/regression/testcase_ConvertLab_AllChannel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="182">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -88,36 +88,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 使用微信关注公共号建立新用户
-3 目标组有【知味葡萄酒爱好者】静态目标组
-4 内容设置里面有【新手】【菜根特】标签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>张庆云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>异常</t>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：设置微信渠道004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertLab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张庆云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
@@ -149,22 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 内容-微信卡劵-切换微信公众号，选择【淘礼满天下】，点击卡劵【到店即送小礼品】
-2 二维码投放，点击创建二维码，填写发送场景：营销活动【2-1测试营销活动】，来源【知乎】，来源内容【有礼品】，点击确定
-3 公众号群发投放 ，点击群发，选择【测试 智能目标组】
-4 用户扫描该卡劵二维码并领取，将该卡劵赠送给1位微信好友</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 用户成功领取【到店即送小礼品】卡劵，
-2 卡片详情-投放效果统计数据，领取次数1和领取人数增加2，领取次数2增加1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建可追踪URL001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新建标准带参二维码001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,10 +137,6 @@
   </si>
   <si>
     <t>定时发送微信图文到微信用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投放卡劵并领取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -217,64 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户关注微信公众号后并收到自动回复文本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该用户收到公共号的自动回复，且回复信息与输入文本信息保持一致
-2 在主页用户数和新增用户数都增加1
-3 成功建立了1个用户，且用户名称与微信昵称一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道002</t>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到图片回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 已知关注【淘礼满天下】的用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建新规则，信息与实际所填信息一致
-2 用户输入关键字后，收到图片回复，且与上传图片一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 成功创建新规则，信息与实际所填信息一致
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户输入关键字005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在公众号中输入关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用微信关注【淘礼满天下】公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 用户在【淘礼满天下】公众号下输入关键字【测试】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>全渠道营销_微信_公众号二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,56 +227,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>删除电子邮件模板002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 电子邮件模板列表中存在模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-电子邮件
-2 选择一个电子邮件模板，点击删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功删除选中的电子邮件模板，模板列表中不存在该电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制电子邮件模板003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建电子邮件模板001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-电子邮件
-2 选择新建的电子邮件模板，点击复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功复制电子邮件模板，模板列表中成功呈现复制后的电子邮件模板
-2 复制的电子邮件与被复制的电子邮件信息内容保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群发电子邮件004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群发电子邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,18 +244,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 预览：显示发送成功，且接受对象收到电邮，客户接收时间与预览时间一致，接收电子邮件信息与预设内容一致
-2 群发：目标组中的客户成功接收到电子邮件，接收时间与实际发送时间保持一致，接受的电子邮件与预设内容保持一致
-3 群发记录列表中显示该电子邮件发送状态完成，发送对象与发送时间与实际保持一致
-4 邮件内容中客户属性与客户详情中信息内容保持一致，点击短链接，成功链接到预设网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定时群发电子邮件005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时群发电子邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,51 +324,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制短消息模板002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 使用测试账户登录到ConvertLab系统
 2 执行用例：新建短消息模板001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-短消息
-2 选择新建的短消息模板，点击复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功复制短消息模板，模板列表中成功呈现复制后的短消息模板
-2 复制的短消息与被复制的短消息信息内容保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除短消息模板003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-短消息
-2 选择新建的短消息模板，点击删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功删除选中的短消息模板，模板列表中不存在该短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群发短消息004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即群发短消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,14 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定时群发短消息005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时群发短消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 全渠道营销-短消息 
 2 选择新创建的短消息，点击定时群发，填写短信通道，发放对象，选择目标组，选择发送时间，点击发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,19 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载发送结果006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载短消息发送结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：群发短消息004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 全渠道营销-短消息-群发记录
 2 选择群发的短消息，点击下载发送结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,17 +369,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出列表007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出短消息的发送列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-2 执行用例：群发短消息004
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建短消息渠道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,29 +416,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建符合预期效果的网页可追踪URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 使用测试账户登入到ConvertLab系统</t>
-  </si>
-  <si>
-    <t>1 全渠道营销_公司网站_网页可追踪URL
-2 点击新建，输入URL相关信息，包含URL，营销活动，来源及相对应得来源活动，信息内容私人化定制，保存
-3 使用微信扫描该二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 网页可追踪URL成功创建，列表中该URL信息与预设信息保持一致，创建时间与实际时间一致
 2 微信扫描该二维码成功链接到预设置的URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全渠道营销_内容标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销_内容标签，点击新建，内容标签【高手】，点击确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,175 +440,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 全渠道营销_微信_公众号设置，点击ConvertLab招聘设置
-2 点击被添加自动回复，选择文本，输入文本信息，点击保存
-3 关注【ConvertLab招聘】微信公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击桃李你满天下设置
-2 点击关键词自动回复，点击添加新规则，输入信息：规则名【图片回复】，关键词【图图 片片】，匹配方式【模糊匹配】，回复选择【图片】，点击上传图片，选择并上传，点击保存
-3 用户在【淘礼满天下】公众号下输入【图图】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
 2 填写信息：发送方式【手动发送】，发放对象【目标组】，选择【非男】目标组，点击发送
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
-2 填写信息：发送方式【定时发送】，发送时间【2016-02-01 17：55】发放对象【目标组】，选择【非男】目标组，点击发送</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>全渠道营销_微信_微页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 全渠道营销_微信_微页面-新建页面
-2 输入页面名称【2.5新年到】，点击标签【新手】
-3 点击控件，拖动【表单】到右侧页面设计中；点击表单设置，填写信息：表单名称【新表单】，勾选自动填充已知信息，表单提交后行为-显示文字【新年到！】，点击添加所有字段，点击保存
-4 点击控件，拖动【带框文本】到右侧页面设计中，填写：姓名：${姓名!"-"} 手机号码：${手机号码!"-"}，点击保存
-5 点击控件，拖动【图片】到右侧页面设计中，点击上传图片，选择图片并确认
-6 点击控件，拖动【卡劵】，选择卡劵【到店即送小礼品】，选择文字颜色、按钮颜色，点击确定
-7 点击设置，勾选在微信中使用或传播和开启微信授权，填写标题【新年到...新年到】（64个字符），并上传图片，填写摘要【新年新年...新年】（256个字符），点击保存并发布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建微页面002
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>设置微信渠道001</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到相关微页面回复</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击淘礼满天下设置
-2 点击关键词自动回复，点击添加新规则，输入规则名【收到微页面回复】，关键词【测试 看看】，匹配方式【模糊匹配】，回复选择【微页面】，选择【2.1测试微页面】微页面，点击保存
-</t>
-  </si>
-  <si>
-    <t>1 用户输入关键字后收到微页面回复，且与所选微页面一致</t>
-  </si>
-  <si>
-    <t>新建微页面001</t>
-  </si>
-  <si>
-    <t>成功新建一个符合预期效果的微页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面
-2 输入页面名称【2.1测试微页面】，点击标签【新手】【菜根特】；
-3 点击控件，拖动【表单】到右侧页面设计中；点击表单设置，填写信息：表单名称【葡萄酒】，勾选自动填充已知信息，表单提交后行为-显示文字【欢迎来到测试】，提交获得积分【5】，提交后加入目标组【知味葡萄酒爱好者】，提交后提升到阶段【口碑用户】；点击添加字段，选择【姓名】【邮箱】【生日】【喜欢的水果】，点击保存
-4 点击控件，拖动【带框文本】到右侧页面设计中，填写：姓名：${姓名!"-"} 手机号码：${手机号码!"-"}，点击保存
-5 点击控件，拖动【图片】到右侧页面设计中，点击上传图片，选择图片并确认
-6 点击设置，勾选在微信中使用或传播和开启微信授权，填写标题【欢迎测试】，并上传图片，填写摘要【测试测试】，点击保存并发布
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 成功建立了1个微页面
-2 微页面创建时间和实际时间一致
-3 微页面成功发布
-</t>
-  </si>
-  <si>
-    <t>新建微页面002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用控件设计微页面中的表单，测试微页面最大承载量
-</t>
-  </si>
-  <si>
-    <t>1 微页面新建成功
-2 创建时间与实际时间一致
-3 微页面成功发布</t>
-  </si>
-  <si>
-    <t>微页面设置003</t>
-  </si>
-  <si>
-    <t>取消微页面发布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-2.1测试微页面
-2 点击 取消发布
-</t>
-  </si>
-  <si>
-    <t>1 【2.1测试微页面】不能取消发布，提示：该微页面已经在使用中，无法取消</t>
-  </si>
-  <si>
-    <t>访问微页面并提交表单004</t>
-  </si>
-  <si>
-    <t>1 访问微页面
-2 使用微页面中提交表单后用户升级功能
-3 使用微信将微页面分享到朋友圈</t>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统
-2 存在智能目标组【曾经转发朋友圈】，满足条件：页面表单事件-转发微信朋友圈-任意微页面
-3 执行用例：新建微页面001</t>
-  </si>
-  <si>
-    <t>1 微信用户点击公众号中【2.1测试微页面】微页面，填写【姓名】【邮箱】【生日】并提交表单
-2 将【2.1测试微页面】微页面分享至朋友圈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1 【2.1测试微页面】-表单数据和所填数据保持一致
-3 微页面的图片成功上传，并与实际上传图片保持一致
-4 【2.1测试微页面】-流量分析中，访问量和提交量人次都增加1，且数据显示访问量大于或等于提交量
-5 查看该用户详情，时间轴中显示访问【访问2.1测试微页面】和内容标签【新手】【菜根特】，显示提交页面表单+5， 用户当前阶段升级为口碑用户，成功加入目标组【知味葡萄酒爱好者】，成功加入智能目标组【曾经转发朋友圈】，事件创建时间与实际时间一致
-</t>
-  </si>
-  <si>
-    <t>复制微页面005</t>
-  </si>
-  <si>
-    <t>复制微页面</t>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统
-2 全渠道营销_微信_微页面中有【2.1测试微页面】</t>
-  </si>
-  <si>
-    <t>1 选择微页面【2.1测试微页面】，点击复制
-2 填写信息：点击编辑，修改页面名称【2.1测试微页面-复制版】，表单中删除字段【喜欢的水果】，添加字段【是否成年】，点击保存并发布
-3 使用微信访问【2.1测试微页面-复制版】微页面并提交表单</t>
-  </si>
-  <si>
-    <t>1 【2.1测试微页面-复制版】表单数据与所填数据保持一致
-2 【2.1测试微页面】表单数据、格式不受影响</t>
-  </si>
-  <si>
-    <t>访问微页面并提交表单006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">访问微页面并提交表单
-</t>
-  </si>
-  <si>
-    <t>1 使用微信访问微页面【2.5新年到】，提交表单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1 【2.5新年到】-表单数据和所填数据保持一致
-3 微页面的图片成功上传，并与实际上传图片保持一致
-4 【2.5新年到】-流量分析中，访问量和提交量人次都增加1，且数据显示访问量大于或等于提交量
-5 查看该用户详情，时间轴中显示访问页面【2.5新年到】和内容标签【新手】，事件创建时间与实际时间一致
-</t>
-  </si>
-  <si>
-    <t>新建微页面007</t>
   </si>
   <si>
     <t>创建一个符合预期效果的微页面</t>
@@ -887,9 +472,6 @@
 5 成功将微页面分享在朋友圈，信息与预设信息保持一致</t>
   </si>
   <si>
-    <t>微页面模板功能008</t>
-  </si>
-  <si>
     <t>微页面模板设计功能与预期描述功能一致</t>
   </si>
   <si>
@@ -905,9 +487,6 @@
 2 页面在手机微信端显示样式与选择的模板样式一致</t>
   </si>
   <si>
-    <t>微页面自定义功能009</t>
-  </si>
-  <si>
     <t>微页面自定义设计下的控件功能与预期描述功能一致</t>
   </si>
   <si>
@@ -915,9 +494,6 @@
 2 选择自定义排版，设计页面空白没有控件
 3 自定义下的控件功能成功使用且与预设功能保持一致
 4 页面在手机微信端显示样式与自定义样式一致</t>
-  </si>
-  <si>
-    <t>微页面页面边距、背景颜色功能010</t>
   </si>
   <si>
     <t>微页面页面边距、背景颜色与预设边距保持一致</t>
@@ -936,9 +512,6 @@
 3 自定义颜色成功添加，页面背景颜色与预设颜色一致</t>
   </si>
   <si>
-    <t>微页面文本、带框文本功能011</t>
-  </si>
-  <si>
     <t>微页面文本、带框文本控件功能与描述功能一致</t>
   </si>
   <si>
@@ -947,42 +520,7 @@
 3 页面在手机微信端显示样式与自定义样式一致，带框文本边距显示与设置值一致，且带框文本中文字与内边框相距50</t>
   </si>
   <si>
-    <t>微页面表单功能012</t>
-  </si>
-  <si>
     <t>微页面表单控件、表单设置功能与描述功能一致</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 用户填写表单，表单已知信息已被填充，字段与预设字段内容保持一致，表达提交后成功跳转到预设页面
-3 任务列表中呈现与预设信息一致的任务
-4 客户详情中时间轴记录事件与实际发生事件一致，内容标签、获得积分、加入目标组、阶段与私人化设置信息保持一致</t>
-  </si>
-  <si>
-    <t>新建微页面的可追踪URL</t>
-  </si>
-  <si>
-    <t>1 内容-可追踪URL-微页面的可追踪URL，点击新建
-2 微页面，填入信息：微页面面【2.1测试微页面】，营销活动【2-1测试营销活动】，来源【知乎】，来源内容【知乎】
-3 微信扫描新建的目标页二维码</t>
-  </si>
-  <si>
-    <t>1 成功创建微页面的URL，创建时间与实际保持一致
-2 成功跳转到【2.1测试微页面】
-3 客户详情-时间轴显示事件：访问页面【2.1测试微页面】，来源、来源内容，营销活动信息与所填实际信息一致</t>
-  </si>
-  <si>
-    <t>1 成功增加1个内容标签
-2 创建微页面-属性-标签，可选新增标签【高手】
-3 内容-微信二维码-内容标签，可选新增标签【高手】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面，设计一个页面，包含内容标签，控件包含表单
-2 表单中字段包含会员信息，选项类字段，单行文本，多行文本，内容信息私人化定制
-3 表单设置，选择自动填充已知信息，输入信息：表单提交后行为选择（显示文字、跳转到网页、转到微页面），提交获得积分，提交后加入目标组，提交后提升阶段，提交表单后创建任务，信息内容私人化定制
-4 使用微信访问微页面，提交表单
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面
@@ -1000,6 +538,339 @@
 4 STEP 03填写标题、摘要，上传图片
 5 保存并发布
 6 使用微信访问微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建新规则，信息与实际所填信息一致
+2 用户输入关键字后，收到测试用户预设置的回复，内容信息与实际保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置微信渠道002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注微信公众号后并收到系统预设置的自动回复，包含文本、图片、微页面和外部页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注微信公众号后输入关键字收到测试用户自定义的回复,包含文本、图片、微页面以及外部页的回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置微信渠道003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 已知未关注测试微信公众号的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击桃淘礼满天下设置
+2 点击关键词自动回复，点击添加新规则，输入信息：规则名，关键词，匹配方式，选择回复信息，具体内容信息私人化定制，点击保存
+3 用户在【淘礼满天下】公众号下输入相对应的关键字
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该用户收到公共号的自动回复，且回复信息与预设信息保持一致
+2 在主页用户数和新增用户数都增加1
+3 成功建立了1个用户，且用户名称与微信昵称一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_公众号设置，选择一个公众号
+2 点击被添加自动回复，选择文本（图片、微页面、外部页），信息私人化定制，点击保存
+3 新用户关注该微信公众号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试微信菜单创建、修改是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 已知关注【淘礼满天下】的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-公众号-设置自定义菜单
+2 点击创建菜单，菜单包含一级菜单和二级菜单，一级菜单可添加为二级菜单入口、文本信息、网页链接，二级菜单包含文本信息、网页链接，内容信息私人化定制，点击保存发布
+3 已关注该微信公众号的客户先取关再关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微信公众号的微信菜单和预设信息保持一致，点击菜单成功收到相对应信息，跳转相对应的网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
+2 填写信息：发送方式【定时发送】，选择发送时间，发放对象【目标组】，选择【非男】目标组，点击发送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统
+2 执行用例：新建微页面001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建微页面001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面设置003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面模板功能004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面自定义功能005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面页面边距、背景颜色功能006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面文本、带框文本功能007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面表单功能008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制微页面并修改微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择新建的微页面，点击复制
+2 填写信息：点击操作按钮中的发布
+3 使用微信访问复制版微页面并提交表单
+4 编辑修改复制后的微页面，内容信息私人化定制
+4 使用微信访问复制版微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新微页面与旧微页面内容信息保持一致，原微页面中的数据信息不会复制到新微页面
+2 提交页面表单后，表单数据以及流量分析不会影响原微页面
+3 修改微页面后，访问微页面，内容信息和修改信息保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测试微页面已在微信公众号关键字自动回复中使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销-微信-微页面
+2 选择待测微页面，点击取消发布
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微页面不能取消发布，提示：该微页面已经在使用中，无法取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试不能取消已在其他环境中使用的微页面的发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建微页面可追踪URL001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建可用的微页面可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 内容-可追踪URL-微页面的可追踪URL，点击新建
+2 微页面，填入信息：微页面名称，营销活动，来源以及相对应的来源内容
+3 微信扫描新建的目标页二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面，设计一个页面，包含内容标签，控件包含表单
+2 表单中字段包含会员信息，选项类字段，单行文本，多行文本，内容信息私人化定制
+3 表单设置，选择自动填充已知信息，输入信息：表单提交后行为选择（显示文字、跳转到网页、转到微页面），提交获得积分，提交后加入目标组，提交后提升阶段，提交表单后创建任务，信息内容私人化定制
+4 使用微信访问微页面，提交表单
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 用户填写表单，表单已知信息已被填充，字段与预设字段内容保持一致，表达提交后成功跳转到预设页面
+3 任务列表中呈现与预设信息一致的任务
+4 客户详情中时间轴记录事件与实际发生事件一致，内容标签、获得积分、加入目标组、阶段与私人化设置信息保持一致
+5 表单数据与实际填写数据一致，对于选项类数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建微页面的URL，创建时间与实际保持一致，微信扫描后成功跳转到预设微页面
+2 URL创建期间，根据不同来源，来源内容这一属性也会随之改变，如：“来源”是其他，lobel对应是来源内容，“来源”是百度搜索，lobel对应是关键字等
+3 客户详情-时间轴显示事件：访问的目标微页面，来源、来源内容，营销活动信息与所填实际信息一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试卡劵的投放、领取、删除、核销功能可以正确使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 内容-微信卡劵-切换微信公众号，选择公众号，选择该公众号下的待测卡劵
+2 二维码投放，点击创建二维码，填写发送场景：营销活动，来源，来源内容，点击确定
+3 公众号群发投放 ，点击群发，选择目标组进行群发
+4 用户扫描该卡劵二维码并领取，将该卡劵赠送给1位微信好友，该好友成功领取卡劵
+5 用户删除领取的微信卡劵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户成功领取到待测卡劵，
+2 卡片详情-投放效果统计数据，领取次数1和领取人数增加2，领取次数2增加1，用户删除微信卡劵后，删除次数增加1
+3 客户详情-时间轴显示领取。删除卡劵时间，来源，来源内容与实际保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建符合预期效果并可用的网页可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-公司网站-网页可追踪URL
+2 点击新建，输入URL相关信息，包含URL，营销活动，来源及相对应得来源活动，信息内容私人化定制，保存
+3 使用微信扫描该二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作电子邮件模板002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件模板的复制、删除功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：新建电子邮件模板001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 预览：显示发送成功，且接受对象收到电邮，客户接收时间与预览时间一致，接收电子邮件信息与预设内容一致
+2 群发：目标组中的客户成功接收到电子邮件，接收时间与实际发送时间保持一致，接受的电子邮件与预设内容保持一致
+3 群发记录列表中显示该电子邮件发送状态完成，发送对象与发送时间与实际保持一致
+4 邮件内容中客户属性与客户详情中信息内容保持一致，点击短链接，成功链接到预设网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功复制电子邮件模板，模板列表中成功呈现复制后的电子邮件模板
+2 复制的电子邮件与被复制的电子邮件信息内容保持一致
+3 成功删除选中的电子邮件模板，模板列表中不存在该电子邮件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-电子邮件
+2 选择新建的电子邮件模板，点击复制
+3 选择新建的电子邮件模板，点击删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件定时群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件立即群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作短消息模板002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息模板复制、删除功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-短消息
+2 选择新建的短消息模板，点击复制
+3 选择新建的短消息模板，点击删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功复制短消息模板，模板列表中成功呈现复制后的短消息模板
+2 复制的短消息与被复制的短消息信息内容保持一致
+3 成功删除选中的短消息模板，模板列表中不存在该短消息模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息立即群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息定时群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发短消息003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时群发短消息004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载短消息发送结果005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试下载短消息发送结果功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：群发短消息003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+2 执行用例：群发短消息003
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出列表006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_内容标签，点击新建，填写内容标签，信息私人化定制，点击确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功增加1个内容标签
+2 创建微页面-属性-标签，可选新增标签
+3 内容-微信二维码-内容标签，可选新增标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作微页面002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1487,7 +1358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="94.5">
+    <row r="2" spans="1:14" ht="81">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1495,22 +1366,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>15</v>
@@ -1522,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -1537,22 +1408,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>15</v>
@@ -1564,37 +1435,37 @@
         <v>1</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="94.5">
+    <row r="4" spans="1:14" ht="81">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
+      <c r="B4" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>15</v>
@@ -1606,14 +1477,14 @@
         <v>1</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="40.5">
+    <row r="5" spans="1:14" ht="67.5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1621,22 +1492,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>15</v>
@@ -1648,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1"/>
     </row>
@@ -1663,22 +1534,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>15</v>
@@ -1690,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1705,22 +1576,22 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>15</v>
@@ -1732,37 +1603,37 @@
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="67.5">
+    <row r="8" spans="1:14" ht="202.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -1774,14 +1645,14 @@
         <v>1</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="256.5">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="94.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1789,83 +1660,83 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="M9" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="229.5">
+    <row r="10" spans="1:14" ht="54">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="10">
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="54">
+    <row r="11" spans="1:14" ht="94.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1873,41 +1744,41 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>133</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="243">
+    <row r="12" spans="1:14" ht="121.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1915,41 +1786,41 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="81">
+    <row r="13" spans="1:14" ht="135">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1957,41 +1828,41 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="175.5">
+    <row r="14" spans="1:14" ht="135">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1999,36 +1870,36 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="4"/>
@@ -2041,22 +1912,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -2064,12 +1935,18 @@
       <c r="J15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="94.5">
+    <row r="16" spans="1:14" ht="148.5">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2077,22 +1954,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -2100,9 +1977,15 @@
       <c r="J16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="121.5">
@@ -2113,22 +1996,22 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -2136,12 +2019,18 @@
       <c r="J17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="135">
+    <row r="18" spans="1:14" ht="67.5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2151,20 +2040,20 @@
       <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>199</v>
+      <c r="D18" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
+        <v>154</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -2172,12 +2061,18 @@
       <c r="J18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="135">
+    <row r="19" spans="1:14" ht="54">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2185,35 +2080,41 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="175.5">
+    <row r="20" spans="1:14" ht="94.5">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2221,35 +2122,41 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="94.5">
+    <row r="21" spans="1:14" ht="189">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2257,35 +2164,41 @@
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="121.5">
+    <row r="22" spans="1:14" ht="202.5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2293,35 +2206,41 @@
         <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="67.5">
+    <row r="23" spans="1:14" ht="54">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2329,59 +2248,65 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="108">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="54">
-      <c r="A24" s="8">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
@@ -2392,122 +2317,122 @@
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="54">
       <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="81">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="162">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" ht="67.5">
-      <c r="A26" s="8">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" ht="189">
-      <c r="A27" s="8">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="I27" s="4" t="s">
         <v>15</v>
       </c>
@@ -2518,205 +2443,205 @@
         <v>1</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" ht="202.5">
       <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="40.5">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="94.5">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="54.75" customHeight="1">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="67.5">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="54">
-      <c r="A29" s="8">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="108">
-      <c r="A30" s="8">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="54">
-      <c r="A31" s="8">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" ht="54">
-      <c r="A32" s="8">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>110</v>
+      <c r="G32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>15</v>
@@ -2724,324 +2649,30 @@
       <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="10">
         <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" ht="54">
-      <c r="A33" s="8">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" ht="162">
-      <c r="A34" s="8">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="202.5">
-      <c r="A35" s="8">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="40.5">
-      <c r="A36" s="8">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="4">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="94.5">
-      <c r="A37" s="8">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="4">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" ht="54.75" customHeight="1">
-      <c r="A38" s="8">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" ht="67.5">
-      <c r="A39" s="8">
-        <v>42</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M32">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K32">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J32">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I32">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>

--- a/regression/testcase_ConvertLab_AllChannel.xlsx
+++ b/regression/testcase_ConvertLab_AllChannel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1006,8 +1006,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,6 +1134,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1181,7 +1184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1214,9 +1217,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,6 +1269,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1427,11 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
@@ -1443,7 +1478,7 @@
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="94.5">
+    <row r="2" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1529,7 +1564,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="108">
+    <row r="3" spans="1:14" ht="108" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1571,7 +1606,7 @@
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="94.5">
+    <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1613,7 +1648,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="40.5">
+    <row r="5" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1655,7 +1690,7 @@
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="67.5">
+    <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1697,7 +1732,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="67.5">
+    <row r="7" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1739,7 +1774,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="67.5">
+    <row r="8" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1781,7 +1816,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="256.5">
+    <row r="9" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1823,7 +1858,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="229.5">
+    <row r="10" spans="1:14" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1854,7 +1889,7 @@
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="10">
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -1865,7 +1900,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="54">
+    <row r="11" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1896,7 +1931,7 @@
       <c r="J11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="10">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -1907,7 +1942,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="243">
+    <row r="12" spans="1:14" ht="243" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1938,7 +1973,7 @@
       <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="10">
         <v>1</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -1949,7 +1984,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="81">
+    <row r="13" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1980,7 +2015,7 @@
       <c r="J13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="10">
         <v>1</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -1991,7 +2026,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="175.5">
+    <row r="14" spans="1:14" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2022,7 +2057,7 @@
       <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -2033,7 +2068,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="202.5">
+    <row r="15" spans="1:14" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2064,12 +2099,14 @@
       <c r="J15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="94.5">
+    <row r="16" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -2100,12 +2137,14 @@
       <c r="J16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:14" ht="121.5">
+    <row r="17" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -2136,12 +2175,14 @@
       <c r="J17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="135">
+    <row r="18" spans="1:14" ht="135" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2172,12 +2213,14 @@
       <c r="J18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="135">
+    <row r="19" spans="1:14" ht="135" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2208,12 +2251,14 @@
       <c r="J19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="175.5">
+    <row r="20" spans="1:14" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2244,12 +2289,14 @@
       <c r="J20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="94.5">
+    <row r="21" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2280,12 +2327,14 @@
       <c r="J21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="121.5">
+    <row r="22" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2316,12 +2365,14 @@
       <c r="J22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="67.5">
+    <row r="23" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2352,14 +2403,16 @@
       <c r="J23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" ht="54">
+    <row r="24" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>14</v>
@@ -2388,7 +2441,7 @@
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="10">
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
@@ -2399,9 +2452,9 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" ht="54">
+    <row r="25" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>14</v>
@@ -2430,7 +2483,7 @@
       <c r="J25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="10">
         <v>1</v>
       </c>
       <c r="L25" s="4" t="s">
@@ -2441,9 +2494,9 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="67.5">
+    <row r="26" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>14</v>
@@ -2472,7 +2525,7 @@
       <c r="J26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="10">
         <v>1</v>
       </c>
       <c r="L26" s="4" t="s">
@@ -2483,9 +2536,9 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="189">
+    <row r="27" spans="1:14" ht="189" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>14</v>
@@ -2514,7 +2567,7 @@
       <c r="J27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="10">
         <v>1</v>
       </c>
       <c r="L27" s="4" t="s">
@@ -2525,9 +2578,9 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" ht="202.5">
+    <row r="28" spans="1:14" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>14</v>
@@ -2556,7 +2609,7 @@
       <c r="J28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="10">
         <v>1</v>
       </c>
       <c r="L28" s="4" t="s">
@@ -2567,9 +2620,9 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="54">
+    <row r="29" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>14</v>
@@ -2598,7 +2651,7 @@
       <c r="J29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="10">
         <v>1</v>
       </c>
       <c r="L29" s="4" t="s">
@@ -2609,9 +2662,9 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="108">
+    <row r="30" spans="1:14" ht="108" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>14</v>
@@ -2640,7 +2693,7 @@
       <c r="J30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="10">
         <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -2651,9 +2704,9 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="54">
+    <row r="31" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
@@ -2682,7 +2735,7 @@
       <c r="J31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="10">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -2693,9 +2746,9 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="54">
+    <row r="32" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
@@ -2724,7 +2777,7 @@
       <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="10">
         <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -2735,9 +2788,9 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="54">
+    <row r="33" spans="1:14" ht="54" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
@@ -2766,7 +2819,7 @@
       <c r="J33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="10">
         <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -2777,9 +2830,9 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" ht="162">
+    <row r="34" spans="1:14" ht="162" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>14</v>
@@ -2808,7 +2861,7 @@
       <c r="J34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="10">
         <v>1</v>
       </c>
       <c r="L34" s="4" t="s">
@@ -2819,9 +2872,9 @@
       </c>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" ht="202.5">
+    <row r="35" spans="1:14" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>14</v>
@@ -2850,7 +2903,7 @@
       <c r="J35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -2861,9 +2914,9 @@
       </c>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" ht="40.5">
+    <row r="36" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>14</v>
@@ -2892,7 +2945,7 @@
       <c r="J36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="10">
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
@@ -2903,9 +2956,9 @@
       </c>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" ht="94.5">
+    <row r="37" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>14</v>
@@ -2934,7 +2987,7 @@
       <c r="J37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="10">
         <v>1</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -2945,9 +2998,9 @@
       </c>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" ht="54.75" customHeight="1">
+    <row r="38" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>14</v>
@@ -2976,7 +3029,7 @@
       <c r="J38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="10">
         <v>1</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -2987,9 +3040,9 @@
       </c>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" ht="67.5">
+    <row r="39" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>14</v>
@@ -3056,7 +3109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,7 +3122,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/regression/testcase_ConvertLab_AllChannel.xlsx
+++ b/regression/testcase_ConvertLab_AllChannel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="182">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -88,36 +88,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 使用微信关注公共号建立新用户
-3 目标组有【知味葡萄酒爱好者】静态目标组
-4 内容设置里面有【新手】【菜根特】标签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>张庆云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>异常</t>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：设置微信渠道004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertLab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张庆云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
@@ -149,22 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 内容-微信卡劵-切换微信公众号，选择【淘礼满天下】，点击卡劵【到店即送小礼品】
-2 二维码投放，点击创建二维码，填写发送场景：营销活动【2-1测试营销活动】，来源【知乎】，来源内容【有礼品】，点击确定
-3 公众号群发投放 ，点击群发，选择【测试 智能目标组】
-4 用户扫描该卡劵二维码并领取，将该卡劵赠送给1位微信好友</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 用户成功领取【到店即送小礼品】卡劵，
-2 卡片详情-投放效果统计数据，领取次数1和领取人数增加2，领取次数2增加1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建可追踪URL001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新建标准带参二维码001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,10 +137,6 @@
   </si>
   <si>
     <t>定时发送微信图文到微信用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投放卡劵并领取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -217,64 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户关注微信公众号后并收到自动回复文本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该用户收到公共号的自动回复，且回复信息与输入文本信息保持一致
-2 在主页用户数和新增用户数都增加1
-3 成功建立了1个用户，且用户名称与微信昵称一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道002</t>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到图片回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 已知关注【淘礼满天下】的用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建新规则，信息与实际所填信息一致
-2 用户输入关键字后，收到图片回复，且与上传图片一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 成功创建新规则，信息与实际所填信息一致
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户输入关键字005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在公众号中输入关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用微信关注【淘礼满天下】公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 用户在【淘礼满天下】公众号下输入关键字【测试】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>全渠道营销_微信_公众号二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,56 +227,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>删除电子邮件模板002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 电子邮件模板列表中存在模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-电子邮件
-2 选择一个电子邮件模板，点击删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功删除选中的电子邮件模板，模板列表中不存在该电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制电子邮件模板003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建电子邮件模板001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-电子邮件
-2 选择新建的电子邮件模板，点击复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功复制电子邮件模板，模板列表中成功呈现复制后的电子邮件模板
-2 复制的电子邮件与被复制的电子邮件信息内容保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>群发电子邮件004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群发电子邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,18 +244,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 预览：显示发送成功，且接受对象收到电邮，客户接收时间与预览时间一致，接收电子邮件信息与预设内容一致
-2 群发：目标组中的客户成功接收到电子邮件，接收时间与实际发送时间保持一致，接受的电子邮件与预设内容保持一致
-3 群发记录列表中显示该电子邮件发送状态完成，发送对象与发送时间与实际保持一致
-4 邮件内容中客户属性与客户详情中信息内容保持一致，点击短链接，成功链接到预设网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定时群发电子邮件005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时群发电子邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,51 +324,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制短消息模板002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 使用测试账户登录到ConvertLab系统
 2 执行用例：新建短消息模板001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-短消息
-2 选择新建的短消息模板，点击复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功复制短消息模板，模板列表中成功呈现复制后的短消息模板
-2 复制的短消息与被复制的短消息信息内容保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除短消息模板003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-短消息
-2 选择新建的短消息模板，点击删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功删除选中的短消息模板，模板列表中不存在该短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群发短消息004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即群发短消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,14 +348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>定时群发短消息005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时群发短消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 全渠道营销-短消息 
 2 选择新创建的短消息，点击定时群发，填写短信通道，发放对象，选择目标组，选择发送时间，点击发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,19 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载发送结果006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载短消息发送结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：群发短消息004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 全渠道营销-短消息-群发记录
 2 选择群发的短消息，点击下载发送结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,17 +369,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出列表007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出短消息的发送列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-2 执行用例：群发短消息004
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建短消息渠道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,29 +416,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建符合预期效果的网页可追踪URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 使用测试账户登入到ConvertLab系统</t>
-  </si>
-  <si>
-    <t>1 全渠道营销_公司网站_网页可追踪URL
-2 点击新建，输入URL相关信息，包含URL，营销活动，来源及相对应得来源活动，信息内容私人化定制，保存
-3 使用微信扫描该二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 网页可追踪URL成功创建，列表中该URL信息与预设信息保持一致，创建时间与实际时间一致
 2 微信扫描该二维码成功链接到预设置的URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全渠道营销_内容标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销_内容标签，点击新建，内容标签【高手】，点击确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -698,175 +440,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 全渠道营销_微信_公众号设置，点击ConvertLab招聘设置
-2 点击被添加自动回复，选择文本，输入文本信息，点击保存
-3 关注【ConvertLab招聘】微信公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击桃李你满天下设置
-2 点击关键词自动回复，点击添加新规则，输入信息：规则名【图片回复】，关键词【图图 片片】，匹配方式【模糊匹配】，回复选择【图片】，点击上传图片，选择并上传，点击保存
-3 用户在【淘礼满天下】公众号下输入【图图】
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
 2 填写信息：发送方式【手动发送】，发放对象【目标组】，选择【非男】目标组，点击发送
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
-2 填写信息：发送方式【定时发送】，发送时间【2016-02-01 17：55】发放对象【目标组】，选择【非男】目标组，点击发送</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>全渠道营销_微信_微页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 全渠道营销_微信_微页面-新建页面
-2 输入页面名称【2.5新年到】，点击标签【新手】
-3 点击控件，拖动【表单】到右侧页面设计中；点击表单设置，填写信息：表单名称【新表单】，勾选自动填充已知信息，表单提交后行为-显示文字【新年到！】，点击添加所有字段，点击保存
-4 点击控件，拖动【带框文本】到右侧页面设计中，填写：姓名：${姓名!"-"} 手机号码：${手机号码!"-"}，点击保存
-5 点击控件，拖动【图片】到右侧页面设计中，点击上传图片，选择图片并确认
-6 点击控件，拖动【卡劵】，选择卡劵【到店即送小礼品】，选择文字颜色、按钮颜色，点击确定
-7 点击设置，勾选在微信中使用或传播和开启微信授权，填写标题【新年到...新年到】（64个字符），并上传图片，填写摘要【新年新年...新年】（256个字符），点击保存并发布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建微页面002
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>设置微信渠道001</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到相关微页面回复</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击淘礼满天下设置
-2 点击关键词自动回复，点击添加新规则，输入规则名【收到微页面回复】，关键词【测试 看看】，匹配方式【模糊匹配】，回复选择【微页面】，选择【2.1测试微页面】微页面，点击保存
-</t>
-  </si>
-  <si>
-    <t>1 用户输入关键字后收到微页面回复，且与所选微页面一致</t>
-  </si>
-  <si>
-    <t>新建微页面001</t>
-  </si>
-  <si>
-    <t>成功新建一个符合预期效果的微页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面
-2 输入页面名称【2.1测试微页面】，点击标签【新手】【菜根特】；
-3 点击控件，拖动【表单】到右侧页面设计中；点击表单设置，填写信息：表单名称【葡萄酒】，勾选自动填充已知信息，表单提交后行为-显示文字【欢迎来到测试】，提交获得积分【5】，提交后加入目标组【知味葡萄酒爱好者】，提交后提升到阶段【口碑用户】；点击添加字段，选择【姓名】【邮箱】【生日】【喜欢的水果】，点击保存
-4 点击控件，拖动【带框文本】到右侧页面设计中，填写：姓名：${姓名!"-"} 手机号码：${手机号码!"-"}，点击保存
-5 点击控件，拖动【图片】到右侧页面设计中，点击上传图片，选择图片并确认
-6 点击设置，勾选在微信中使用或传播和开启微信授权，填写标题【欢迎测试】，并上传图片，填写摘要【测试测试】，点击保存并发布
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 成功建立了1个微页面
-2 微页面创建时间和实际时间一致
-3 微页面成功发布
-</t>
-  </si>
-  <si>
-    <t>新建微页面002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">使用控件设计微页面中的表单，测试微页面最大承载量
-</t>
-  </si>
-  <si>
-    <t>1 微页面新建成功
-2 创建时间与实际时间一致
-3 微页面成功发布</t>
-  </si>
-  <si>
-    <t>微页面设置003</t>
-  </si>
-  <si>
-    <t>取消微页面发布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-2.1测试微页面
-2 点击 取消发布
-</t>
-  </si>
-  <si>
-    <t>1 【2.1测试微页面】不能取消发布，提示：该微页面已经在使用中，无法取消</t>
-  </si>
-  <si>
-    <t>访问微页面并提交表单004</t>
-  </si>
-  <si>
-    <t>1 访问微页面
-2 使用微页面中提交表单后用户升级功能
-3 使用微信将微页面分享到朋友圈</t>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统
-2 存在智能目标组【曾经转发朋友圈】，满足条件：页面表单事件-转发微信朋友圈-任意微页面
-3 执行用例：新建微页面001</t>
-  </si>
-  <si>
-    <t>1 微信用户点击公众号中【2.1测试微页面】微页面，填写【姓名】【邮箱】【生日】并提交表单
-2 将【2.1测试微页面】微页面分享至朋友圈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1 【2.1测试微页面】-表单数据和所填数据保持一致
-3 微页面的图片成功上传，并与实际上传图片保持一致
-4 【2.1测试微页面】-流量分析中，访问量和提交量人次都增加1，且数据显示访问量大于或等于提交量
-5 查看该用户详情，时间轴中显示访问【访问2.1测试微页面】和内容标签【新手】【菜根特】，显示提交页面表单+5， 用户当前阶段升级为口碑用户，成功加入目标组【知味葡萄酒爱好者】，成功加入智能目标组【曾经转发朋友圈】，事件创建时间与实际时间一致
-</t>
-  </si>
-  <si>
-    <t>复制微页面005</t>
-  </si>
-  <si>
-    <t>复制微页面</t>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统
-2 全渠道营销_微信_微页面中有【2.1测试微页面】</t>
-  </si>
-  <si>
-    <t>1 选择微页面【2.1测试微页面】，点击复制
-2 填写信息：点击编辑，修改页面名称【2.1测试微页面-复制版】，表单中删除字段【喜欢的水果】，添加字段【是否成年】，点击保存并发布
-3 使用微信访问【2.1测试微页面-复制版】微页面并提交表单</t>
-  </si>
-  <si>
-    <t>1 【2.1测试微页面-复制版】表单数据与所填数据保持一致
-2 【2.1测试微页面】表单数据、格式不受影响</t>
-  </si>
-  <si>
-    <t>访问微页面并提交表单006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">访问微页面并提交表单
-</t>
-  </si>
-  <si>
-    <t>1 使用微信访问微页面【2.5新年到】，提交表单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1 【2.5新年到】-表单数据和所填数据保持一致
-3 微页面的图片成功上传，并与实际上传图片保持一致
-4 【2.5新年到】-流量分析中，访问量和提交量人次都增加1，且数据显示访问量大于或等于提交量
-5 查看该用户详情，时间轴中显示访问页面【2.5新年到】和内容标签【新手】，事件创建时间与实际时间一致
-</t>
-  </si>
-  <si>
-    <t>新建微页面007</t>
   </si>
   <si>
     <t>创建一个符合预期效果的微页面</t>
@@ -887,9 +472,6 @@
 5 成功将微页面分享在朋友圈，信息与预设信息保持一致</t>
   </si>
   <si>
-    <t>微页面模板功能008</t>
-  </si>
-  <si>
     <t>微页面模板设计功能与预期描述功能一致</t>
   </si>
   <si>
@@ -905,9 +487,6 @@
 2 页面在手机微信端显示样式与选择的模板样式一致</t>
   </si>
   <si>
-    <t>微页面自定义功能009</t>
-  </si>
-  <si>
     <t>微页面自定义设计下的控件功能与预期描述功能一致</t>
   </si>
   <si>
@@ -915,9 +494,6 @@
 2 选择自定义排版，设计页面空白没有控件
 3 自定义下的控件功能成功使用且与预设功能保持一致
 4 页面在手机微信端显示样式与自定义样式一致</t>
-  </si>
-  <si>
-    <t>微页面页面边距、背景颜色功能010</t>
   </si>
   <si>
     <t>微页面页面边距、背景颜色与预设边距保持一致</t>
@@ -936,9 +512,6 @@
 3 自定义颜色成功添加，页面背景颜色与预设颜色一致</t>
   </si>
   <si>
-    <t>微页面文本、带框文本功能011</t>
-  </si>
-  <si>
     <t>微页面文本、带框文本控件功能与描述功能一致</t>
   </si>
   <si>
@@ -947,42 +520,7 @@
 3 页面在手机微信端显示样式与自定义样式一致，带框文本边距显示与设置值一致，且带框文本中文字与内边框相距50</t>
   </si>
   <si>
-    <t>微页面表单功能012</t>
-  </si>
-  <si>
     <t>微页面表单控件、表单设置功能与描述功能一致</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 用户填写表单，表单已知信息已被填充，字段与预设字段内容保持一致，表达提交后成功跳转到预设页面
-3 任务列表中呈现与预设信息一致的任务
-4 客户详情中时间轴记录事件与实际发生事件一致，内容标签、获得积分、加入目标组、阶段与私人化设置信息保持一致</t>
-  </si>
-  <si>
-    <t>新建微页面的可追踪URL</t>
-  </si>
-  <si>
-    <t>1 内容-可追踪URL-微页面的可追踪URL，点击新建
-2 微页面，填入信息：微页面面【2.1测试微页面】，营销活动【2-1测试营销活动】，来源【知乎】，来源内容【知乎】
-3 微信扫描新建的目标页二维码</t>
-  </si>
-  <si>
-    <t>1 成功创建微页面的URL，创建时间与实际保持一致
-2 成功跳转到【2.1测试微页面】
-3 客户详情-时间轴显示事件：访问页面【2.1测试微页面】，来源、来源内容，营销活动信息与所填实际信息一致</t>
-  </si>
-  <si>
-    <t>1 成功增加1个内容标签
-2 创建微页面-属性-标签，可选新增标签【高手】
-3 内容-微信二维码-内容标签，可选新增标签【高手】</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面，设计一个页面，包含内容标签，控件包含表单
-2 表单中字段包含会员信息，选项类字段，单行文本，多行文本，内容信息私人化定制
-3 表单设置，选择自动填充已知信息，输入信息：表单提交后行为选择（显示文字、跳转到网页、转到微页面），提交获得积分，提交后加入目标组，提交后提升阶段，提交表单后创建任务，信息内容私人化定制
-4 使用微信访问微页面，提交表单
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面
@@ -1002,12 +540,345 @@
 6 使用微信访问微页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1 成功创建新规则，信息与实际所填信息一致
+2 用户输入关键字后，收到测试用户预设置的回复，内容信息与实际保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置微信渠道002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注微信公众号后并收到系统预设置的自动回复，包含文本、图片、微页面和外部页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注微信公众号后输入关键字收到测试用户自定义的回复,包含文本、图片、微页面以及外部页的回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置微信渠道003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 已知未关注测试微信公众号的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击桃淘礼满天下设置
+2 点击关键词自动回复，点击添加新规则，输入信息：规则名，关键词，匹配方式，选择回复信息，具体内容信息私人化定制，点击保存
+3 用户在【淘礼满天下】公众号下输入相对应的关键字
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该用户收到公共号的自动回复，且回复信息与预设信息保持一致
+2 在主页用户数和新增用户数都增加1
+3 成功建立了1个用户，且用户名称与微信昵称一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_公众号设置，选择一个公众号
+2 点击被添加自动回复，选择文本（图片、微页面、外部页），信息私人化定制，点击保存
+3 新用户关注该微信公众号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试微信菜单创建、修改是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 已知关注【淘礼满天下】的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-公众号-设置自定义菜单
+2 点击创建菜单，菜单包含一级菜单和二级菜单，一级菜单可添加为二级菜单入口、文本信息、网页链接，二级菜单包含文本信息、网页链接，内容信息私人化定制，点击保存发布
+3 已关注该微信公众号的客户先取关再关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微信公众号的微信菜单和预设信息保持一致，点击菜单成功收到相对应信息，跳转相对应的网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
+2 填写信息：发送方式【定时发送】，选择发送时间，发放对象【目标组】，选择【非男】目标组，点击发送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统
+2 执行用例：新建微页面001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建微页面001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面设置003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面模板功能004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面自定义功能005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面页面边距、背景颜色功能006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面文本、带框文本功能007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面表单功能008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制微页面并修改微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择新建的微页面，点击复制
+2 填写信息：点击操作按钮中的发布
+3 使用微信访问复制版微页面并提交表单
+4 编辑修改复制后的微页面，内容信息私人化定制
+4 使用微信访问复制版微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新微页面与旧微页面内容信息保持一致，原微页面中的数据信息不会复制到新微页面
+2 提交页面表单后，表单数据以及流量分析不会影响原微页面
+3 修改微页面后，访问微页面，内容信息和修改信息保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测试微页面已在微信公众号关键字自动回复中使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销-微信-微页面
+2 选择待测微页面，点击取消发布
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微页面不能取消发布，提示：该微页面已经在使用中，无法取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试不能取消已在其他环境中使用的微页面的发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建微页面可追踪URL001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建可用的微页面可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 内容-可追踪URL-微页面的可追踪URL，点击新建
+2 微页面，填入信息：微页面名称，营销活动，来源以及相对应的来源内容
+3 微信扫描新建的目标页二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面，设计一个页面，包含内容标签，控件包含表单
+2 表单中字段包含会员信息，选项类字段，单行文本，多行文本，内容信息私人化定制
+3 表单设置，选择自动填充已知信息，输入信息：表单提交后行为选择（显示文字、跳转到网页、转到微页面），提交获得积分，提交后加入目标组，提交后提升阶段，提交表单后创建任务，信息内容私人化定制
+4 使用微信访问微页面，提交表单
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 用户填写表单，表单已知信息已被填充，字段与预设字段内容保持一致，表达提交后成功跳转到预设页面
+3 任务列表中呈现与预设信息一致的任务
+4 客户详情中时间轴记录事件与实际发生事件一致，内容标签、获得积分、加入目标组、阶段与私人化设置信息保持一致
+5 表单数据与实际填写数据一致，对于选项类数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建微页面的URL，创建时间与实际保持一致，微信扫描后成功跳转到预设微页面
+2 URL创建期间，根据不同来源，来源内容这一属性也会随之改变，如：“来源”是其他，lobel对应是来源内容，“来源”是百度搜索，lobel对应是关键字等
+3 客户详情-时间轴显示事件：访问的目标微页面，来源、来源内容，营销活动信息与所填实际信息一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试卡劵的投放、领取、删除、核销功能可以正确使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 内容-微信卡劵-切换微信公众号，选择公众号，选择该公众号下的待测卡劵
+2 二维码投放，点击创建二维码，填写发送场景：营销活动，来源，来源内容，点击确定
+3 公众号群发投放 ，点击群发，选择目标组进行群发
+4 用户扫描该卡劵二维码并领取，将该卡劵赠送给1位微信好友，该好友成功领取卡劵
+5 用户删除领取的微信卡劵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户成功领取到待测卡劵，
+2 卡片详情-投放效果统计数据，领取次数1和领取人数增加2，领取次数2增加1，用户删除微信卡劵后，删除次数增加1
+3 客户详情-时间轴显示领取。删除卡劵时间，来源，来源内容与实际保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建符合预期效果并可用的网页可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-公司网站-网页可追踪URL
+2 点击新建，输入URL相关信息，包含URL，营销活动，来源及相对应得来源活动，信息内容私人化定制，保存
+3 使用微信扫描该二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作电子邮件模板002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件模板的复制、删除功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：新建电子邮件模板001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 预览：显示发送成功，且接受对象收到电邮，客户接收时间与预览时间一致，接收电子邮件信息与预设内容一致
+2 群发：目标组中的客户成功接收到电子邮件，接收时间与实际发送时间保持一致，接受的电子邮件与预设内容保持一致
+3 群发记录列表中显示该电子邮件发送状态完成，发送对象与发送时间与实际保持一致
+4 邮件内容中客户属性与客户详情中信息内容保持一致，点击短链接，成功链接到预设网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功复制电子邮件模板，模板列表中成功呈现复制后的电子邮件模板
+2 复制的电子邮件与被复制的电子邮件信息内容保持一致
+3 成功删除选中的电子邮件模板，模板列表中不存在该电子邮件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-电子邮件
+2 选择新建的电子邮件模板，点击复制
+3 选择新建的电子邮件模板，点击删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件定时群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件立即群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作短消息模板002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息模板复制、删除功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-短消息
+2 选择新建的短消息模板，点击复制
+3 选择新建的短消息模板，点击删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功复制短消息模板，模板列表中成功呈现复制后的短消息模板
+2 复制的短消息与被复制的短消息信息内容保持一致
+3 成功删除选中的短消息模板，模板列表中不存在该短消息模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息立即群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息定时群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发短消息003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时群发短消息004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载短消息发送结果005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试下载短消息发送结果功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：群发短消息003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+2 执行用例：群发短消息003
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出列表006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_内容标签，点击新建，填写内容标签，信息私人化定制，点击确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功增加1个内容标签
+2 创建微页面-属性-标签，可选新增标签
+3 内容-微信二维码-内容标签，可选新增标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作微页面002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,9 +1005,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1184,7 +1052,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,26 +1085,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,23 +1120,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1462,11 +1296,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
@@ -1478,7 +1314,7 @@
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="81">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1530,22 +1366,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>15</v>
@@ -1557,14 +1393,14 @@
         <v>1</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="108">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1572,22 +1408,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>15</v>
@@ -1599,37 +1435,37 @@
         <v>1</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="81">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
+      <c r="B4" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>15</v>
@@ -1641,14 +1477,14 @@
         <v>1</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="67.5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1656,22 +1492,22 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>15</v>
@@ -1683,14 +1519,14 @@
         <v>1</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="67.5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1698,22 +1534,22 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>15</v>
@@ -1725,14 +1561,14 @@
         <v>1</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="67.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1740,22 +1576,22 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>15</v>
@@ -1767,37 +1603,37 @@
         <v>1</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="202.5">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -1809,14 +1645,14 @@
         <v>1</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="256.5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="94.5">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1824,67 +1660,67 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="M9" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="54">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -1893,14 +1729,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="94.5">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1908,41 +1744,41 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>133</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="243" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="121.5">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1950,41 +1786,41 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="135">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1992,41 +1828,41 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="10">
         <v>1</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="135">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2034,155 +1870,167 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="202.5">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="148.5">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="121.5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="10">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14" ht="135" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="67.5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2192,20 +2040,20 @@
       <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>199</v>
+      <c r="D18" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
+        <v>154</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -2216,11 +2064,15 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="L18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:14" ht="135" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="54">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2228,37 +2080,41 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="94.5">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2266,37 +2122,41 @@
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="10">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="189">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2304,37 +2164,41 @@
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="202.5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2342,37 +2206,41 @@
         <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="54">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2380,37 +2248,41 @@
         <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>142</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>144</v>
+        <v>58</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="108">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2418,41 +2290,41 @@
         <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="I24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="4">
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="54">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2460,22 +2332,22 @@
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>15</v>
@@ -2483,18 +2355,18 @@
       <c r="J25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="4">
         <v>1</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="81">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2502,22 +2374,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>15</v>
@@ -2525,18 +2397,18 @@
       <c r="J26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="4">
         <v>1</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="189" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="162">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2544,22 +2416,22 @@
         <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>15</v>
@@ -2567,18 +2439,18 @@
       <c r="J27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="4">
         <v>1</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" ht="202.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="202.5">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2586,22 +2458,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>15</v>
@@ -2609,18 +2481,18 @@
       <c r="J28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="4">
         <v>1</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="40.5">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2628,22 +2500,22 @@
         <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>15</v>
@@ -2651,18 +2523,18 @@
       <c r="J29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="4">
         <v>1</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="94.5">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2670,22 +2542,22 @@
         <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>15</v>
@@ -2693,18 +2565,18 @@
       <c r="J30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="4">
         <v>1</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="54.75" customHeight="1">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2712,22 +2584,22 @@
         <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>15</v>
@@ -2735,18 +2607,18 @@
       <c r="J31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="4">
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="54" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="67.5">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2754,22 +2626,22 @@
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>15</v>
@@ -2781,320 +2653,26 @@
         <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" ht="162" x14ac:dyDescent="0.15">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M32">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K32">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J32">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I32">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3109,7 +2687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3122,7 +2700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/regression/testcase_ConvertLab_AllChannel.xlsx
+++ b/regression/testcase_ConvertLab_AllChannel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="227">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -871,6 +871,223 @@
   </si>
   <si>
     <t>操作微页面002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全渠道营销_微信_微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单设置001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图形化方式设置表单样式功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 新建1个微页面，页面包含表单，表单中字段包含选项类字段，自定义内容（单项选择、多项选择、下拉框，包含字段描述类提示文字），信息内容私人化定制
+3 表单样式，针对表单中字段、输入框、提交按钮设置样式，私人化定制
+4 点击保存发布
+5 使用微信访问该微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
+2 图形化方式设置表单样式功能可用
+3 表单在手机中显示样式和预设样式保持一致，即表单中字段的标签文字、提示文字、选项文字的字体、大小、是否加粗、颜色以及字段间的间距和预设样式一致；表单中输入框边框设置预设样式一致；表单中提示按钮的按钮样式、边框样式、字体以及布局与预设样式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试文本编辑是否影响之前动作的标题编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 新建1个微页面，页面包含标题栏、图片、文本控件等，编辑标题栏信息，图片信息，之后编辑文本信息，内容私人化定制
+3 保存并发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面新建过程中，文本的样式、内容编辑不影响之前标题的样式、内容信息
+2 成功新建1个符合预期效果的微页面，创建时间与实际时间一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建页面003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编辑中从STEP03返回上一步STEP02不影响该页面设置的背景颜色和上下、左右边距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 新建1个微页面，在STEP02步骤中设置页面的上下、左右边距20，背景 颜色红色，内容信息私人化定制
+3 执行动作：STEP03中设置页面信息，再点击返回上一步
+4 回到STEP03，保存发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
+2 执行动作：从STEP03返回上一步STEP02，微页面的背景颜色、上下、左右边距不发生变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单流量分析004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试表单的访问量和提交量与实际情况保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 微页面列表中存在待测包含表单的微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 使用微信访问微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微页面的表单流量分析中，访问量的人次和人数，提交量的人次和人数与实际数量保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全渠道营销_公司网站_嵌入式表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建嵌入式表单005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试嵌入式表单可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-公司网站-嵌入式表单
+2 新建1个嵌入式表单，包含姓名，邮箱，生日等字段，信息内容私人化定制，保存
+3 将创建的表单嵌入到外部页面，访问该外部页面，提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建与预期效果一致的嵌入式表单
+2 表单成功提交，表单数据与实际填入数据一致，提交时间与实际时间一致
+3 表单数据中相同用户的多次提交，数据依旧会被记录，客户详情中后一次的提交会覆盖前面提交的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短息验证006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单中手机号码短信验证功能是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建1个微页面（包含表单），表单中包含字段姓名、手机号码，且在手机号码字段选择使用验证码，内容信息私人化定制
+2 保存发布
+3 使用微信访问该微页面，提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
+2 用户成功收到短信验证，输入验证码，成功提交表单，与预设短信验证功能一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户目前阶段001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试提交表单后客户提升到新阶段功能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建1个微页面，内容包含表单，表单设置中选择【提交后提升到阶段】（未知、关注者、线索、潜在客户、意向客户、成交客户），内容信息私人化定制
+2 保存并发布
+3 用户使用微信访问微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个和预期效果一致的微页面，创建时间与实际时间保持一致
+2 客户详情-目前阶段，显示阶段与表单设置中的预设阶段保持一致
+3 客户列表，该客户的当前阶段列显示阶段与预设阶段保持一致
+4 客户详情-时间轴中成功记录客户访问页面和提交表单事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面草稿或发布状态001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试微页面draft or active状态功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统
+2 微页面列表中存在处于已发布状态的待测微页面，且该微页面已被关联到系统默认公众号【ConvertLab招聘】的菜单中，命名为：测试
+3 已关注ConvertLab招聘公众号的待测客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择待测微页面，点击编辑，将该微页面背景颜色改为粉色，其他信息私人化定制
+2 点击确定
+3 点击ConvertLab招聘公众号菜单【测试】，查看公众号跳出的微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面列表中，待测微页面处于草稿状态
+2 待测微页面的背景颜色不为粉色，微页面状态信息与编辑前保持一致
+3 客户详情-时间轴成功记录客户事件，微页面-流量分析数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面草稿或发布状态002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统
+2 执行用例：微页面草稿或发布状态001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面列表中，待测微页面的操作按钮，选择发布
+2 点击ConvertLab招聘公众号菜单【测试】，查看公众号跳出的微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面列表中，待测微页面处于发布状态
+2 查看该微页面，背景颜色为粉色，状态信息与编辑后状态保持一致
+3 客户详情-时间轴成功记录客户事件，微页面-流量分析数据统计准确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1946,30 +2163,30 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="148.5">
+    <row r="16" spans="1:14" ht="162">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>150</v>
+      <c r="B16" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>15</v>
@@ -1981,37 +2198,37 @@
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" ht="121.5">
+        <v>190</v>
+      </c>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="67.5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>153</v>
+      <c r="B17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>15</v>
@@ -2023,37 +2240,37 @@
         <v>1</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="67.5">
+        <v>190</v>
+      </c>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="94.5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>154</v>
+      <c r="B18" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>90</v>
+        <v>186</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>15</v>
@@ -2065,224 +2282,224 @@
         <v>1</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="54">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="B19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10">
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" ht="94.5">
+        <v>190</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="67.5">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4">
+      <c r="B20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="10">
         <v>1</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" ht="189">
+        <v>189</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" ht="121.5">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="202.5">
+      <c r="B21" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="121.5">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" ht="54">
+      <c r="B22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="94.5">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="108">
+      <c r="B23" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="148.5">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2290,41 +2507,41 @@
         <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>50</v>
+        <v>150</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" ht="54">
+    <row r="25" spans="1:14" ht="121.5">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2332,41 +2549,41 @@
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>50</v>
+        <v>153</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="81">
+    <row r="26" spans="1:14" ht="67.5">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2374,83 +2591,83 @@
         <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>165</v>
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>71</v>
+        <v>154</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="162">
+    <row r="27" spans="1:14" ht="121.5">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" ht="202.5">
+      <c r="B27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="54">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2458,22 +2675,22 @@
         <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>15</v>
@@ -2484,15 +2701,15 @@
       <c r="K28" s="4">
         <v>1</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>50</v>
+      <c r="L28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" ht="40.5">
+    <row r="29" spans="1:14" ht="94.5">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2500,22 +2717,22 @@
         <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>15</v>
@@ -2526,15 +2743,15 @@
       <c r="K29" s="4">
         <v>1</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>49</v>
+      <c r="L29" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="94.5">
+    <row r="30" spans="1:14" ht="189">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2542,22 +2759,22 @@
         <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>15</v>
@@ -2576,7 +2793,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="54.75" customHeight="1">
+    <row r="31" spans="1:14" ht="202.5">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2584,22 +2801,22 @@
         <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>15</v>
@@ -2618,7 +2835,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="67.5">
+    <row r="32" spans="1:14" ht="54">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2626,53 +2843,459 @@
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" ht="108">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14" ht="54">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14" ht="81">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14" ht="162">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" ht="202.5">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" ht="40.5">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" ht="94.5">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" ht="54.75" customHeight="1">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" ht="67.5">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4" t="s">
+      <c r="I41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M42">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K42">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J42">
       <formula1>"None,Pass,Fail"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I42">
       <formula1>"功能,异常,性能,安全"</formula1>
     </dataValidation>
   </dataValidations>

--- a/regression/testcase_ConvertLab_AllChannel.xlsx
+++ b/regression/testcase_ConvertLab_AllChannel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="232">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -142,14 +142,6 @@
   <si>
     <t>微信卡劵001</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全渠道营销_微信_微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全渠道营销_微信_微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1 使用测试账户登录ConvertLab系统
@@ -177,10 +169,6 @@
   </si>
   <si>
     <t>全渠道营销_微信_微信图文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全渠道营销_微信_微页面可追踪URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,15 +434,666 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>全渠道营销_微信_微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设置微信渠道001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>创建一个符合预期效果的微页面</t>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 系统主页客户总数增加1，客户列表显示新客户，该客户详情-时间轴中显示访问页面和提交表单事件，事件记录时间和实际发生时间一致
+3 微页面-流量分析，访问量、提交量增加1，提交率计算准确，统计图表计算准确
+4 微页面-表单数据与用户实际提交数据保持一致，表单中选项类的数据统计图表准确
+5 成功将微页面分享在朋友圈，信息与预设信息保持一致</t>
+  </si>
+  <si>
+    <t>微页面模板设计功能与预期描述功能一致</t>
+  </si>
+  <si>
+    <t>1 内容-微页面-新建页面
+2 STEP 01选择需要的模板，编辑模板中控件，控件内容信息私人化定制，下一步
+3 STEP 02，STEP 03填写页面名称、标题、摘要、封面图片信息，内容私人化
+4 保存并发布
+5 使用微信访问微页面</t>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设内容信息一致的微页面，创建时间与实际创建时间一致
+2 选择的模板控件与模板所示图片一致
+2 页面在手机微信端显示样式与选择的模板样式一致</t>
+  </si>
+  <si>
+    <t>微页面自定义设计下的控件功能与预期描述功能一致</t>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 选择自定义排版，设计页面空白没有控件
+3 自定义下的控件功能成功使用且与预设功能保持一致
+4 页面在手机微信端显示样式与自定义样式一致</t>
+  </si>
+  <si>
+    <t>微页面页面边距、背景颜色与预设边距保持一致</t>
+  </si>
+  <si>
+    <t>1 内容-微页面-新建页面
+2 STEP 01选择创建自定义排版，下一步
+3 STEP 02选择控件，信息内容私人化定制，填写页面名称；【上下边距、左右边距】值分别选择三种测试：0，0；100，100；添加背景颜色，自定义一种颜色并添加到自定义颜色表中
+4 STEP 03填写标题、摘要，上传图片
+5 保存并发布
+6 使用微信访问微页面</t>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 页面在手机微信端显示页面边距与实际设置一致，预设值为（0，0），页面上下、左右与显示框无余量，预设值为（100，100），页面上下、左右与显示界面边距为100
+3 自定义颜色成功添加，页面背景颜色与预设颜色一致</t>
+  </si>
+  <si>
+    <t>微页面文本、带框文本控件功能与描述功能一致</t>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 文本空间边框尺寸值为0，带框文本控件边框尺寸默认有值，文本和带框文本控件编辑与描述功能一致
+3 页面在手机微信端显示样式与自定义样式一致，带框文本边距显示与设置值一致，且带框文本中文字与内边框相距50</t>
+  </si>
+  <si>
+    <t>微页面表单控件、表单设置功能与描述功能一致</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面
+2 设计一个页面，控件包括文本，带框文本；编辑文本，信息私人化定制；编辑带框文本，边框尺寸值默认1，内边距、外边距值：50，50
+3 STEP 02，STEP 03填写页面名称、标题、摘要、封面图片信息，内容私人化
+4 保存并发布
+5 使用微信访问微页面
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_微页面-新建页面
+2 STEP 01选择创建自定义排版，下一步
+3 STEP 02选择控件，控件除表单外可放置任意数量，页面包含1个表单，多个文本、图片控件，信息内容和布局私人化定制，填写页面名称，下一步
+4 STEP 03填写标题、摘要，上传图片
+5 保存并发布
+6 使用微信访问微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建新规则，信息与实际所填信息一致
+2 用户输入关键字后，收到测试用户预设置的回复，内容信息与实际保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置微信渠道002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注微信公众号后并收到系统预设置的自动回复，包含文本、图片、微页面和外部页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注微信公众号后输入关键字收到测试用户自定义的回复,包含文本、图片、微页面以及外部页的回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置微信渠道003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 已知未关注测试微信公众号的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击桃淘礼满天下设置
+2 点击关键词自动回复，点击添加新规则，输入信息：规则名，关键词，匹配方式，选择回复信息，具体内容信息私人化定制，点击保存
+3 用户在【淘礼满天下】公众号下输入相对应的关键字
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该用户收到公共号的自动回复，且回复信息与预设信息保持一致
+2 在主页用户数和新增用户数都增加1
+3 成功建立了1个用户，且用户名称与微信昵称一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_公众号设置，选择一个公众号
+2 点击被添加自动回复，选择文本（图片、微页面、外部页），信息私人化定制，点击保存
+3 新用户关注该微信公众号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试微信菜单创建、修改是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 已知关注【淘礼满天下】的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-公众号-设置自定义菜单
+2 点击创建菜单，菜单包含一级菜单和二级菜单，一级菜单可添加为二级菜单入口、文本信息、网页链接，二级菜单包含文本信息、网页链接，内容信息私人化定制，点击保存发布
+3 已关注该微信公众号的客户先取关再关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微信公众号的微信菜单和预设信息保持一致，点击菜单成功收到相对应信息，跳转相对应的网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
+2 填写信息：发送方式【定时发送】，选择发送时间，发放对象【目标组】，选择【非男】目标组，点击发送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统
+2 执行用例：新建微页面001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建微页面001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面设置003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面模板功能004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面自定义功能005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面页面边距、背景颜色功能006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面文本、带框文本功能007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面表单功能008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制微页面并修改微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择新建的微页面，点击复制
+2 填写信息：点击操作按钮中的发布
+3 使用微信访问复制版微页面并提交表单
+4 编辑修改复制后的微页面，内容信息私人化定制
+4 使用微信访问复制版微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新微页面与旧微页面内容信息保持一致，原微页面中的数据信息不会复制到新微页面
+2 提交页面表单后，表单数据以及流量分析不会影响原微页面
+3 修改微页面后，访问微页面，内容信息和修改信息保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 待测试微页面已在微信公众号关键字自动回复中使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销-微信-微页面
+2 选择待测微页面，点击取消发布
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微页面不能取消发布，提示：该微页面已经在使用中，无法取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试不能取消已在其他环境中使用的微页面的发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建微页面可追踪URL001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建可用的微页面可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 内容-可追踪URL-微页面的可追踪URL，点击新建
+2 微页面，填入信息：微页面名称，营销活动，来源以及相对应的来源内容
+3 微信扫描新建的目标页二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面，设计一个页面，包含内容标签，控件包含表单
+2 表单中字段包含会员信息，选项类字段，单行文本，多行文本，内容信息私人化定制
+3 表单设置，选择自动填充已知信息，输入信息：表单提交后行为选择（显示文字、跳转到网页、转到微页面），提交获得积分，提交后加入目标组，提交后提升阶段，提交表单后创建任务，信息内容私人化定制
+4 使用微信访问微页面，提交表单
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
+2 用户填写表单，表单已知信息已被填充，字段与预设字段内容保持一致，表达提交后成功跳转到预设页面
+3 任务列表中呈现与预设信息一致的任务
+4 客户详情中时间轴记录事件与实际发生事件一致，内容标签、获得积分、加入目标组、阶段与私人化设置信息保持一致
+5 表单数据与实际填写数据一致，对于选项类数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建微页面的URL，创建时间与实际保持一致，微信扫描后成功跳转到预设微页面
+2 URL创建期间，根据不同来源，来源内容这一属性也会随之改变，如：“来源”是其他，lobel对应是来源内容，“来源”是百度搜索，lobel对应是关键字等
+3 客户详情-时间轴显示事件：访问的目标微页面，来源、来源内容，营销活动信息与所填实际信息一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试卡劵的投放、领取、删除、核销功能可以正确使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 内容-微信卡劵-切换微信公众号，选择公众号，选择该公众号下的待测卡劵
+2 二维码投放，点击创建二维码，填写发送场景：营销活动，来源，来源内容，点击确定
+3 公众号群发投放 ，点击群发，选择目标组进行群发
+4 用户扫描该卡劵二维码并领取，将该卡劵赠送给1位微信好友，该好友成功领取卡劵
+5 用户删除领取的微信卡劵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 用户成功领取到待测卡劵，
+2 卡片详情-投放效果统计数据，领取次数1和领取人数增加2，领取次数2增加1，用户删除微信卡劵后，删除次数增加1
+3 客户详情-时间轴显示领取。删除卡劵时间，来源，来源内容与实际保持一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建符合预期效果并可用的网页可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登入到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-公司网站-网页可追踪URL
+2 点击新建，输入URL相关信息，包含URL，营销活动，来源及相对应得来源活动，信息内容私人化定制，保存
+3 使用微信扫描该二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作电子邮件模板002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件模板的复制、删除功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：新建电子邮件模板001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 预览：显示发送成功，且接受对象收到电邮，客户接收时间与预览时间一致，接收电子邮件信息与预设内容一致
+2 群发：目标组中的客户成功接收到电子邮件，接收时间与实际发送时间保持一致，接受的电子邮件与预设内容保持一致
+3 群发记录列表中显示该电子邮件发送状态完成，发送对象与发送时间与实际保持一致
+4 邮件内容中客户属性与客户详情中信息内容保持一致，点击短链接，成功链接到预设网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功复制电子邮件模板，模板列表中成功呈现复制后的电子邮件模板
+2 复制的电子邮件与被复制的电子邮件信息内容保持一致
+3 成功删除选中的电子邮件模板，模板列表中不存在该电子邮件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-电子邮件
+2 选择新建的电子邮件模板，点击复制
+3 选择新建的电子邮件模板，点击删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件定时群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电子邮件立即群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作短消息模板002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息模板复制、删除功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-短消息
+2 选择新建的短消息模板，点击复制
+3 选择新建的短消息模板，点击删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功复制短消息模板，模板列表中成功呈现复制后的短消息模板
+2 复制的短消息与被复制的短消息信息内容保持一致
+3 成功删除选中的短消息模板，模板列表中不存在该短消息模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息立即群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试短消息定时群发功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发短消息003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时群发短消息004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载短消息发送结果005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试下载短消息发送结果功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 执行用例：群发短消息003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
+2 执行用例：群发短消息003
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出列表006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销_内容标签，点击新建，填写内容标签，信息私人化定制，点击确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功增加1个内容标签
+2 创建微页面-属性-标签，可选新增标签
+3 内容-微信二维码-内容标签，可选新增标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作微页面002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单设置001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试图形化方式设置表单样式功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 新建1个微页面，页面包含表单，表单中字段包含选项类字段，自定义内容（单项选择、多项选择、下拉框，包含字段描述类提示文字），信息内容私人化定制
+3 表单样式，针对表单中字段、输入框、提交按钮设置样式，私人化定制
+4 点击保存发布
+5 使用微信访问该微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
+2 图形化方式设置表单样式功能可用
+3 表单在手机中显示样式和预设样式保持一致，即表单中字段的标签文字、提示文字、选项文字的字体、大小、是否加粗、颜色以及字段间的间距和预设样式一致；表单中输入框边框设置预设样式一致；表单中提示按钮的按钮样式、边框样式、字体以及布局与预设样式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张庆云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本编辑002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试文本编辑是否影响之前动作的标题编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 新建1个微页面，页面包含标题栏、图片、文本控件等，编辑标题栏信息，图片信息，之后编辑文本信息，内容私人化定制
+3 保存并发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面新建过程中，文本的样式、内容编辑不影响之前标题的样式、内容信息
+2 成功新建1个符合预期效果的微页面，创建时间与实际时间一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建页面003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面编辑中从STEP03返回上一步STEP02不影响该页面设置的背景颜色和上下、左右边距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 新建1个微页面，在STEP02步骤中设置页面的上下、左右边距20，背景 颜色红色，内容信息私人化定制
+3 执行动作：STEP03中设置页面信息，再点击返回上一步
+4 回到STEP03，保存发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
+2 执行动作：从STEP03返回上一步STEP02，微页面的背景颜色、上下、左右边距不发生变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单流量分析004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试表单的访问量和提交量与实际情况保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账户登录到ConvertLab系统
+2 微页面列表中存在待测包含表单的微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-微信-微页面
+2 使用微信访问微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 该微页面的表单流量分析中，访问量的人次和人数，提交量的人次和人数与实际数量保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全渠道营销_公司网站_嵌入式表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建嵌入式表单005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试嵌入式表单可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全渠道营销-公司网站-嵌入式表单
+2 新建1个嵌入式表单，包含姓名，邮箱，生日等字段，信息内容私人化定制，保存
+3 将创建的表单嵌入到外部页面，访问该外部页面，提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功创建与预期效果一致的嵌入式表单
+2 表单成功提交，表单数据与实际填入数据一致，提交时间与实际时间一致
+3 表单数据中相同用户的多次提交，数据依旧会被记录，客户详情中后一次的提交会覆盖前面提交的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单中手机号码短信验证功能是否可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建1个微页面（包含表单），表单中包含字段姓名、手机号码，且在手机号码字段选择使用验证码，内容信息私人化定制
+2 保存发布
+3 使用微信访问该微页面，提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
+2 用户成功收到短信验证，输入验证码，成功提交表单，与预设短信验证功能一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户目前阶段001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试提交表单后客户提升到新阶段功能有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 新建1个微页面，内容包含表单，表单设置中选择【提交后提升到阶段】（未知、关注者、线索、潜在客户、意向客户、成交客户），内容信息私人化定制
+2 保存并发布
+3 用户使用微信访问微页面并提交表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 成功新建1个和预期效果一致的微页面，创建时间与实际时间保持一致
+2 客户详情-目前阶段，显示阶段与表单设置中的预设阶段保持一致
+3 客户列表，该客户的当前阶段列显示阶段与预设阶段保持一致
+4 客户详情-时间轴中成功记录客户访问页面和提交表单事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面草稿或发布状态001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试微页面draft or active状态功能可用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统
+2 微页面列表中存在处于已发布状态的待测微页面，且该微页面已被关联到系统默认公众号【ConvertLab招聘】的菜单中，命名为：测试
+3 已关注ConvertLab招聘公众号的待测客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 选择待测微页面，点击编辑，将该微页面背景颜色改为粉色，其他信息私人化定制
+2 点击确定
+3 点击ConvertLab招聘公众号菜单【测试】，查看公众号跳出的微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面列表中，待测微页面处于草稿状态
+2 待测微页面的背景颜色不为粉色，微页面状态信息与编辑前保持一致
+3 客户详情-时间轴成功记录客户事件，微页面-流量分析数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面草稿或发布状态002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 使用测试账号登陆到ConvertLab系统
+2 执行用例：微页面草稿或发布状态001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面列表中，待测微页面的操作按钮，选择发布
+2 点击ConvertLab招聘公众号菜单【测试】，查看公众号跳出的微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面列表中，待测微页面处于发布状态
+2 查看该微页面，背景颜色为粉色，状态信息与编辑后状态保持一致
+3 客户详情-时间轴成功记录客户事件，微页面-流量分析数据统计准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短息验证006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容_微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容_微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全渠道营销_微信_微页面可追踪URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertLab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容_微页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微页面中链接埋点追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试微页面链接埋点追踪可用（包括普通链接和自定义事件链接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 创建新微页面（内容包括两个链接追踪设置，分别记录为“点击微页面链接”事件-行为名称（报名），以及记录为一个自定义事件（拜访新客户）），保存并发布该微页面
+2 待测客户访问该微页面并点击链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1 内容-微页面-新建页面
@@ -463,631 +1102,17 @@
 4 勾选在微信中使用并传播和开启微信授权 ，对标题、摘要、封面图片信息私人化定制，选择手工发布
 5 保存并发布
 6 使用微信访问微页面并提交表单，将该微页面分享在朋友圈</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 系统主页客户总数增加1，客户列表显示新客户，该客户详情-时间轴中显示访问页面和提交表单事件，事件记录时间和实际发生时间一致
-3 微页面-流量分析，访问量、提交量增加1，提交率计算准确，统计图表计算准确
-4 微页面-表单数据与用户实际提交数据保持一致，表单中选项类的数据统计图表准确
-5 成功将微页面分享在朋友圈，信息与预设信息保持一致</t>
-  </si>
-  <si>
-    <t>微页面模板设计功能与预期描述功能一致</t>
-  </si>
-  <si>
-    <t>1 内容-微页面-新建页面
-2 STEP 01选择需要的模板，编辑模板中控件，控件内容信息私人化定制，下一步
-3 STEP 02，STEP 03填写页面名称、标题、摘要、封面图片信息，内容私人化
-4 保存并发布
-5 使用微信访问微页面</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设内容信息一致的微页面，创建时间与实际创建时间一致
-2 选择的模板控件与模板所示图片一致
-2 页面在手机微信端显示样式与选择的模板样式一致</t>
-  </si>
-  <si>
-    <t>微页面自定义设计下的控件功能与预期描述功能一致</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 选择自定义排版，设计页面空白没有控件
-3 自定义下的控件功能成功使用且与预设功能保持一致
-4 页面在手机微信端显示样式与自定义样式一致</t>
-  </si>
-  <si>
-    <t>微页面页面边距、背景颜色与预设边距保持一致</t>
-  </si>
-  <si>
-    <t>1 内容-微页面-新建页面
-2 STEP 01选择创建自定义排版，下一步
-3 STEP 02选择控件，信息内容私人化定制，填写页面名称；【上下边距、左右边距】值分别选择三种测试：0，0；100，100；添加背景颜色，自定义一种颜色并添加到自定义颜色表中
-4 STEP 03填写标题、摘要，上传图片
-5 保存并发布
-6 使用微信访问微页面</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 页面在手机微信端显示页面边距与实际设置一致，预设值为（0，0），页面上下、左右与显示框无余量，预设值为（100，100），页面上下、左右与显示界面边距为100
-3 自定义颜色成功添加，页面背景颜色与预设颜色一致</t>
-  </si>
-  <si>
-    <t>微页面文本、带框文本控件功能与描述功能一致</t>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 文本空间边框尺寸值为0，带框文本控件边框尺寸默认有值，文本和带框文本控件编辑与描述功能一致
-3 页面在手机微信端显示样式与自定义样式一致，带框文本边距显示与设置值一致，且带框文本中文字与内边框相距50</t>
-  </si>
-  <si>
-    <t>微页面表单控件、表单设置功能与描述功能一致</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面
-2 设计一个页面，控件包括文本，带框文本；编辑文本，信息私人化定制；编辑带框文本，边框尺寸值默认1，内边距、外边距值：50，50
-3 STEP 02，STEP 03填写页面名称、标题、摘要、封面图片信息，内容私人化
-4 保存并发布
-5 使用微信访问微页面
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销_微信_微页面-新建页面
-2 STEP 01选择创建自定义排版，下一步
-3 STEP 02选择控件，控件除表单外可放置任意数量，页面包含1个表单，多个文本、图片控件，信息内容和布局私人化定制，填写页面名称，下一步
-4 STEP 03填写标题、摘要，上传图片
-5 保存并发布
-6 使用微信访问微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建新规则，信息与实际所填信息一致
-2 用户输入关键字后，收到测试用户预设置的回复，内容信息与实际保持一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertLab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后并收到系统预设置的自动回复，包含文本、图片、微页面和外部页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户关注微信公众号后输入关键字收到测试用户自定义的回复,包含文本、图片、微页面以及外部页的回复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置微信渠道003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 已知未关注测试微信公众号的用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_公众号设置，点击桃淘礼满天下设置
-2 点击关键词自动回复，点击添加新规则，输入信息：规则名，关键词，匹配方式，选择回复信息，具体内容信息私人化定制，点击保存
-3 用户在【淘礼满天下】公众号下输入相对应的关键字
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该用户收到公共号的自动回复，且回复信息与预设信息保持一致
-2 在主页用户数和新增用户数都增加1
-3 成功建立了1个用户，且用户名称与微信昵称一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销_微信_公众号设置，选择一个公众号
-2 点击被添加自动回复，选择文本（图片、微页面、外部页），信息私人化定制，点击保存
-3 新用户关注该微信公众号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试微信菜单创建、修改是否可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 已知关注【淘礼满天下】的用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-微信-公众号-设置自定义菜单
-2 点击创建菜单，菜单包含一级菜单和二级菜单，一级菜单可添加为二级菜单入口、文本信息、网页链接，二级菜单包含文本信息、网页链接，内容信息私人化定制，点击保存发布
-3 已关注该微信公众号的客户先取关再关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该微信公众号的微信菜单和预设信息保持一致，点击菜单成功收到相对应信息，跳转相对应的网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销_微信_微信图文，公众号选择【淘礼满天下】，选择砍价无极限图文，点击群发
-2 填写信息：发送方式【定时发送】，选择发送时间，发放对象【目标组】，选择【非男】目标组，点击发送</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统
-2 执行用例：新建微页面001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建微页面001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面设置003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面模板功能004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面自定义功能005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面页面边距、背景颜色功能006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面文本、带框文本功能007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面表单功能008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制微页面并修改微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 选择新建的微页面，点击复制
-2 填写信息：点击操作按钮中的发布
-3 使用微信访问复制版微页面并提交表单
-4 编辑修改复制后的微页面，内容信息私人化定制
-4 使用微信访问复制版微页面并提交表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 新微页面与旧微页面内容信息保持一致，原微页面中的数据信息不会复制到新微页面
-2 提交页面表单后，表单数据以及流量分析不会影响原微页面
-3 修改微页面后，访问微页面，内容信息和修改信息保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 待测试微页面已在微信公众号关键字自动回复中使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销-微信-微页面
-2 选择待测微页面，点击取消发布
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该微页面不能取消发布，提示：该微页面已经在使用中，无法取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试不能取消已在其他环境中使用的微页面的发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建微页面可追踪URL001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建可用的微页面可追踪URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 内容-可追踪URL-微页面的可追踪URL，点击新建
-2 微页面，填入信息：微页面名称，营销活动，来源以及相对应的来源内容
-3 微信扫描新建的目标页二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 全渠道营销_微信_微页面-新建页面，设计一个页面，包含内容标签，控件包含表单
-2 表单中字段包含会员信息，选项类字段，单行文本，多行文本，内容信息私人化定制
-3 表单设置，选择自动填充已知信息，输入信息：表单提交后行为选择（显示文字、跳转到网页、转到微页面），提交获得积分，提交后加入目标组，提交后提升阶段，提交表单后创建任务，信息内容私人化定制
-4 使用微信访问微页面，提交表单
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建一个与预设信息一致的微页面，创建时间与实际创建时间一致
-2 用户填写表单，表单已知信息已被填充，字段与预设字段内容保持一致，表达提交后成功跳转到预设页面
-3 任务列表中呈现与预设信息一致的任务
-4 客户详情中时间轴记录事件与实际发生事件一致，内容标签、获得积分、加入目标组、阶段与私人化设置信息保持一致
-5 表单数据与实际填写数据一致，对于选项类数据统计准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建微页面的URL，创建时间与实际保持一致，微信扫描后成功跳转到预设微页面
-2 URL创建期间，根据不同来源，来源内容这一属性也会随之改变，如：“来源”是其他，lobel对应是来源内容，“来源”是百度搜索，lobel对应是关键字等
-3 客户详情-时间轴显示事件：访问的目标微页面，来源、来源内容，营销活动信息与所填实际信息一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试卡劵的投放、领取、删除、核销功能可以正确使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 内容-微信卡劵-切换微信公众号，选择公众号，选择该公众号下的待测卡劵
-2 二维码投放，点击创建二维码，填写发送场景：营销活动，来源，来源内容，点击确定
-3 公众号群发投放 ，点击群发，选择目标组进行群发
-4 用户扫描该卡劵二维码并领取，将该卡劵赠送给1位微信好友，该好友成功领取卡劵
-5 用户删除领取的微信卡劵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 用户成功领取到待测卡劵，
-2 卡片详情-投放效果统计数据，领取次数1和领取人数增加2，领取次数2增加1，用户删除微信卡劵后，删除次数增加1
-3 客户详情-时间轴显示领取。删除卡劵时间，来源，来源内容与实际保持一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建符合预期效果并可用的网页可追踪URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登入到ConvertLab系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-公司网站-网页可追踪URL
-2 点击新建，输入URL相关信息，包含URL，营销活动，来源及相对应得来源活动，信息内容私人化定制，保存
-3 使用微信扫描该二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作电子邮件模板002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试电子邮件模板的复制、删除功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：新建电子邮件模板001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 预览：显示发送成功，且接受对象收到电邮，客户接收时间与预览时间一致，接收电子邮件信息与预设内容一致
-2 群发：目标组中的客户成功接收到电子邮件，接收时间与实际发送时间保持一致，接受的电子邮件与预设内容保持一致
-3 群发记录列表中显示该电子邮件发送状态完成，发送对象与发送时间与实际保持一致
-4 邮件内容中客户属性与客户详情中信息内容保持一致，点击短链接，成功链接到预设网页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功复制电子邮件模板，模板列表中成功呈现复制后的电子邮件模板
-2 复制的电子邮件与被复制的电子邮件信息内容保持一致
-3 成功删除选中的电子邮件模板，模板列表中不存在该电子邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-电子邮件
-2 选择新建的电子邮件模板，点击复制
-3 选择新建的电子邮件模板，点击删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试电子邮件定时群发功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试电子邮件立即群发功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作短消息模板002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试短消息模板复制、删除功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-短消息
-2 选择新建的短消息模板，点击复制
-3 选择新建的短消息模板，点击删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功复制短消息模板，模板列表中成功呈现复制后的短消息模板
-2 复制的短消息与被复制的短消息信息内容保持一致
-3 成功删除选中的短消息模板，模板列表中不存在该短消息模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试短消息立即群发功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试短消息定时群发功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群发短消息003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时群发短消息004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载短消息发送结果005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试下载短消息发送结果功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 执行用例：群发短消息003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 使用测试账户登录到ConvertLab系统
-2 执行用例：群发短消息003
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出列表006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销_内容标签，点击新建，填写内容标签，信息私人化定制，点击确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功增加1个内容标签
-2 创建微页面-属性-标签，可选新增标签
-3 内容-微信二维码-内容标签，可选新增标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作微页面002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertLab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全渠道营销_微信_微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单设置001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试图形化方式设置表单样式功能可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-微信-微页面
-2 新建1个微页面，页面包含表单，表单中字段包含选项类字段，自定义内容（单项选择、多项选择、下拉框，包含字段描述类提示文字），信息内容私人化定制
-3 表单样式，针对表单中字段、输入框、提交按钮设置样式，私人化定制
-4 点击保存发布
-5 使用微信访问该微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
-2 图形化方式设置表单样式功能可用
-3 表单在手机中显示样式和预设样式保持一致，即表单中字段的标签文字、提示文字、选项文字的字体、大小、是否加粗、颜色以及字段间的间距和预设样式一致；表单中输入框边框设置预设样式一致；表单中提示按钮的按钮样式、边框样式、字体以及布局与预设样式一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张庆云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本编辑002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试文本编辑是否影响之前动作的标题编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-微信-微页面
-2 新建1个微页面，页面包含标题栏、图片、文本控件等，编辑标题栏信息，图片信息，之后编辑文本信息，内容私人化定制
-3 保存并发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 微页面新建过程中，文本的样式、内容编辑不影响之前标题的样式、内容信息
-2 成功新建1个符合预期效果的微页面，创建时间与实际时间一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建页面003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面编辑中从STEP03返回上一步STEP02不影响该页面设置的背景颜色和上下、左右边距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-微信-微页面
-2 新建1个微页面，在STEP02步骤中设置页面的上下、左右边距20，背景 颜色红色，内容信息私人化定制
-3 执行动作：STEP03中设置页面信息，再点击返回上一步
-4 回到STEP03，保存发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
-2 执行动作：从STEP03返回上一步STEP02，微页面的背景颜色、上下、左右边距不发生变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单流量分析004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试表单的访问量和提交量与实际情况保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账户登录到ConvertLab系统
-2 微页面列表中存在待测包含表单的微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-微信-微页面
-2 使用微信访问微页面并提交表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 该微页面的表单流量分析中，访问量的人次和人数，提交量的人次和人数与实际数量保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全渠道营销_公司网站_嵌入式表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建嵌入式表单005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试嵌入式表单可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 全渠道营销-公司网站-嵌入式表单
-2 新建1个嵌入式表单，包含姓名，邮箱，生日等字段，信息内容私人化定制，保存
-3 将创建的表单嵌入到外部页面，访问该外部页面，提交表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功创建与预期效果一致的嵌入式表单
-2 表单成功提交，表单数据与实际填入数据一致，提交时间与实际时间一致
-3 表单数据中相同用户的多次提交，数据依旧会被记录，客户详情中后一次的提交会覆盖前面提交的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短息验证006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单中手机号码短信验证功能是否可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 新建1个微页面（包含表单），表单中包含字段姓名、手机号码，且在手机号码字段选择使用验证码，内容信息私人化定制
-2 保存发布
-3 使用微信访问该微页面，提交表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功新建1个符合预期效果的微页面，创建时间与实际时间一致
-2 用户成功收到短信验证，输入验证码，成功提交表单，与预设短信验证功能一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户目前阶段001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试提交表单后客户提升到新阶段功能有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账号登陆到ConvertLab系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 新建1个微页面，内容包含表单，表单设置中选择【提交后提升到阶段】（未知、关注者、线索、潜在客户、意向客户、成交客户），内容信息私人化定制
-2 保存并发布
-3 用户使用微信访问微页面并提交表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 成功新建1个和预期效果一致的微页面，创建时间与实际时间保持一致
-2 客户详情-目前阶段，显示阶段与表单设置中的预设阶段保持一致
-3 客户列表，该客户的当前阶段列显示阶段与预设阶段保持一致
-4 客户详情-时间轴中成功记录客户访问页面和提交表单事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面草稿或发布状态001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试微页面draft or active状态功能可用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1 使用测试账号登陆到ConvertLab系统
-2 微页面列表中存在处于已发布状态的待测微页面，且该微页面已被关联到系统默认公众号【ConvertLab招聘】的菜单中，命名为：测试
-3 已关注ConvertLab招聘公众号的待测客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 选择待测微页面，点击编辑，将该微页面背景颜色改为粉色，其他信息私人化定制
-2 点击确定
-3 点击ConvertLab招聘公众号菜单【测试】，查看公众号跳出的微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 微页面列表中，待测微页面处于草稿状态
-2 待测微页面的背景颜色不为粉色，微页面状态信息与编辑前保持一致
-3 客户详情-时间轴成功记录客户事件，微页面-流量分析数据统计准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微页面草稿或发布状态002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 使用测试账号登陆到ConvertLab系统
-2 执行用例：微页面草稿或发布状态001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 微页面列表中，待测微页面的操作按钮，选择发布
-2 点击ConvertLab招聘公众号菜单【测试】，查看公众号跳出的微页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 微页面列表中，待测微页面处于发布状态
-2 查看该微页面，背景颜色为粉色，状态信息与编辑后状态保持一致
-3 客户详情-时间轴成功记录客户事件，微页面-流量分析数据统计准确</t>
+2 客户设置-关键事件设置中已存在自定义事件[拜访新客户]，评分标准、推进阶段内容自定义
+3 客户列表中已存在待测客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 微页面的链接追踪成功设置并保存发布，信息数据与预设信息一致
+2 客户详情时间轴中访问页面、点击微页面中链接、自定义事件准确显示，名称、数据信息准确完整，且事件发生分值、阶段正确增减、推进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1515,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1524,10 +1549,10 @@
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
-    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="39.25" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="58.5" customWidth="1"/>
+    <col min="8" max="8" width="45.875" customWidth="1"/>
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1583,22 +1608,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>15</v>
@@ -1625,22 +1650,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>15</v>
@@ -1664,25 +1689,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>15</v>
@@ -1709,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
@@ -1721,10 +1746,10 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>15</v>
@@ -1751,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>22</v>
@@ -1763,7 +1788,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>24</v>
@@ -1793,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -1805,7 +1830,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
@@ -1827,7 +1852,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="202.5">
+    <row r="8" spans="1:14" ht="171.75" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1835,22 +1860,22 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>15</v>
@@ -1869,7 +1894,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="94.5">
+    <row r="9" spans="1:14" ht="81">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1877,22 +1902,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
@@ -1911,7 +1936,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="54">
+    <row r="10" spans="1:14" ht="40.5">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1919,22 +1944,22 @@
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
@@ -1961,22 +1986,22 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>15</v>
@@ -1995,7 +2020,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="121.5">
+    <row r="12" spans="1:14" ht="108">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2003,22 +2028,22 @@
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>15</v>
@@ -2037,7 +2062,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="135">
+    <row r="13" spans="1:14" ht="108">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2045,22 +2070,22 @@
         <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>15</v>
@@ -2079,7 +2104,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="135">
+    <row r="14" spans="1:14" ht="108">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2087,22 +2112,22 @@
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>15</v>
@@ -2121,7 +2146,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="202.5">
+    <row r="15" spans="1:14" ht="135">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -2129,22 +2154,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>15</v>
@@ -2163,366 +2188,366 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="162">
+    <row r="16" spans="1:14" ht="108">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="I16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="54">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="F17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="10">
-        <v>1</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="67.5">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M17" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="94.5">
+    <row r="18" spans="1:14" ht="67.5">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="10">
-        <v>1</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M18" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="54">
+    <row r="19" spans="1:14" ht="27">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M19" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14" ht="67.5">
+    <row r="20" spans="1:14" ht="54">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="10">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M20" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14" ht="121.5">
+    <row r="21" spans="1:14" ht="108">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M21" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14" ht="121.5">
+    <row r="22" spans="1:14" ht="106.5" customHeight="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M22" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:14" ht="94.5">
+    <row r="23" spans="1:14" ht="67.5">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="M23" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:14" ht="148.5">
+    <row r="24" spans="1:14" ht="82.5" customHeight="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>150</v>
+      <c r="B24" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>15</v>
@@ -2539,9 +2564,9 @@
       <c r="M24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" ht="121.5">
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="94.5">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2549,22 +2574,22 @@
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>15</v>
@@ -2583,7 +2608,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="67.5">
+    <row r="26" spans="1:14" ht="121.5">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2591,22 +2616,22 @@
         <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>15</v>
@@ -2625,30 +2650,30 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" ht="121.5">
+    <row r="27" spans="1:14" ht="67.5">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>206</v>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>208</v>
+        <v>150</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>15</v>
@@ -2660,56 +2685,56 @@
         <v>1</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="54">
+        <v>17</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="121.5">
       <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="B28" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="10">
         <v>1</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="94.5">
+        <v>184</v>
+      </c>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="54">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2717,22 +2742,22 @@
         <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>15</v>
@@ -2746,12 +2771,12 @@
       <c r="L29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>50</v>
+      <c r="M29" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" ht="189">
+    <row r="30" spans="1:14" ht="94.5">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2759,22 +2784,22 @@
         <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>15</v>
@@ -2785,15 +2810,15 @@
       <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>49</v>
+      <c r="L30" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" ht="202.5">
+    <row r="31" spans="1:14" ht="189">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2801,22 +2826,22 @@
         <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>15</v>
@@ -2828,14 +2853,14 @@
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="54">
+    <row r="32" spans="1:14" ht="202.5">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2843,41 +2868,41 @@
         <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="M32" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" ht="108">
+    <row r="33" spans="1:14" ht="54">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2885,22 +2910,22 @@
         <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>15</v>
@@ -2912,14 +2937,14 @@
         <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" ht="54">
+    <row r="34" spans="1:14" ht="108">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2927,41 +2952,41 @@
         <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="M34" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="1:14" ht="81">
+    <row r="35" spans="1:14" ht="54">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2969,22 +2994,22 @@
         <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="H35" s="5" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>15</v>
@@ -2996,14 +3021,14 @@
         <v>1</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" ht="162">
+    <row r="36" spans="1:14" ht="81">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -3011,22 +3036,22 @@
         <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>15</v>
@@ -3038,14 +3063,14 @@
         <v>1</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" ht="202.5">
+    <row r="37" spans="1:14" ht="162">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -3053,22 +3078,22 @@
         <v>14</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>15</v>
@@ -3080,14 +3105,14 @@
         <v>1</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" ht="40.5">
+    <row r="38" spans="1:14" ht="202.5">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -3095,22 +3120,22 @@
         <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>15</v>
@@ -3122,14 +3147,14 @@
         <v>1</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" ht="94.5">
+    <row r="39" spans="1:14" ht="40.5">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -3137,22 +3162,22 @@
         <v>14</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>15</v>
@@ -3164,14 +3189,14 @@
         <v>1</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" ht="54.75" customHeight="1">
+    <row r="40" spans="1:14" ht="94.5">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -3179,22 +3204,22 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>15</v>
@@ -3206,14 +3231,14 @@
         <v>1</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" ht="67.5">
+    <row r="41" spans="1:14" ht="54.75" customHeight="1">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -3221,22 +3246,22 @@
         <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>180</v>
+        <v>63</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>15</v>
@@ -3244,44 +3269,58 @@
       <c r="J41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="4">
         <v>1</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" ht="67.5">
       <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J42" s="10" t="s">
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="10">
         <v>1</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="10"/>
+      <c r="N42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
